--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="C33" s="34" t="n"/>
       <c r="D33" s="35" t="n">
-        <v>652.812</v>
+        <v>1165.8</v>
       </c>
       <c r="E33" s="36" t="n"/>
       <c r="F33" s="36" t="n"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="C34" s="32" t="n"/>
       <c r="D34" s="38" t="n">
-        <v>1123.703</v>
+        <v>1966.2</v>
       </c>
       <c r="E34" s="36" t="n"/>
       <c r="F34" s="36" t="n"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="C35" s="32" t="n"/>
       <c r="D35" s="38" t="n">
-        <v>1242.108</v>
+        <v>2164.56</v>
       </c>
       <c r="E35" s="36" t="n"/>
       <c r="F35" s="36" t="n"/>
@@ -981,15 +981,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -981,15 +981,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -981,15 +981,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -981,15 +981,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS EXTRA REFORZADA DISMAY.xlsx
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="C33" s="34" t="n"/>
       <c r="D33" s="35" t="n">
-        <v>652.812</v>
+        <v>1507.712</v>
       </c>
       <c r="E33" s="36" t="n"/>
       <c r="F33" s="36" t="n"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="C34" s="32" t="n"/>
       <c r="D34" s="38" t="n">
-        <v>1123.703</v>
+        <v>2542.857</v>
       </c>
       <c r="E34" s="36" t="n"/>
       <c r="F34" s="36" t="n"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="C35" s="32" t="n"/>
       <c r="D35" s="38" t="n">
-        <v>1242.108</v>
+        <v>2799.394</v>
       </c>
       <c r="E35" s="36" t="n"/>
       <c r="F35" s="36" t="n"/>
@@ -981,15 +981,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
